--- a/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/Projects/Airline_Costs.xlsx
+++ b/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/Projects/Airline_Costs.xlsx
@@ -1,29 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25904"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Author Drive (E. Ruiz)\Excel Statistics\Course Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgesoto/Desktop/Maven_Analytics/Excel/Statistics for Data Analysis/StatisticsforDataAnalysis-221118-112009/Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E56EEA74-A543-43AA-8D4D-5356C7FE8F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B984B7C-53E7-DD47-ABEA-DBF4122C2D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="20140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Airline" sheetId="1" r:id="rId1"/>
+    <sheet name="model built with Airline 4-6" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Airline!$A$1:$F$91</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Airline!$C$17:$C$31</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Airline!$C$2:$C$16</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Airline!$F$62:$F$76</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Airline!$F$77:$F$91</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Airline!$C$17:$C$31</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Airline!$C$2:$C$16</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Airline!$C$33:$C$46</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Airline!$C$47:$C$61</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Airline!$C$62:$C$76</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Airline!$C$77:$C$91</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Airline!$F$17:$F$31</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Airline!$F$2:$F$16</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Airline!$C$33:$C$46</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Airline!$F$32:$F$46</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Airline!$F$47:$F$61</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Airline!$F$62:$F$76</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Airline!$F$77:$F$91</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Airline!$C$47:$C$61</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Airline!$C$62:$C$76</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Airline!$C$77:$C$91</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Airline!$F$17:$F$31</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Airline!$F$2:$F$16</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Airline!$F$32:$F$46</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Airline!$F$47:$F$61</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
   <si>
     <t>Airline</t>
   </si>
@@ -42,16 +80,100 @@
   <si>
     <t>Cost (thousands)</t>
   </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>RESIDUAL OUTPUT</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Predicted Cost (thousands)</t>
+  </si>
+  <si>
+    <t>Residuals</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,8 +308,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,8 +503,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -489,6 +631,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -534,12 +696,25 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -598,8 +773,5230 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Airline 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Airline!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.95275699999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.986757</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.09198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.17578</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1601699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1737599999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.29051</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3906700000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.61273</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.82544</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5460400000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5279</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6601999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8223100000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9364600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Airline!$F$2:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1140640</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1215690</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1309570</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1511530</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1676730</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1823740</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2022890</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2314760</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2639160</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3247620</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3787750</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3867750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3996020</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4282880</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4748320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D237-F347-99CD-EB5442FDE84B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Airline 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Airline!$C$17:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.52063499999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53462699999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.655192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79157500000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84294500000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85289199999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92284299999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.19845</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.34067</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3262400000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2485200000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2543200000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3717699999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.38974</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Airline!$F$17:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>569292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>640614</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>777655</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>999294</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1203970</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1358100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1501350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1709270</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2025400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2548370</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3137740</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3557700</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3717740</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3962370</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4209390</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D237-F347-99CD-EB5442FDE84B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Airline 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Airline!$C$33:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.26643299999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30604300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32558599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34570600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36751699999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.409937</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.448023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.53959500000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53938200000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46796700000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.450544</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.46879300000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.49439699999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.49331700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Airline!$F$32:$F$46</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>286298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>309290</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>342056</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>374595</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>450037</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>510412</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>575347</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>669331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>783799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>913883</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1041520</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1125800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1096070</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1198930</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1170470</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D237-F347-99CD-EB5442FDE84B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Airline 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Airline!$C$47:$C$61</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8.6392999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6740000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.169715</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17380499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.164272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.170906</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17784</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.192248</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24246899999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25650499999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24965699999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27392300000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.37113099999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.42141099999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Airline!$F$47:$F$61</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>145167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>247506</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>309391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>354338</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>373941</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>420915</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>474017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>532590</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>676771</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>880438</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1052020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1193680</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1303390</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1436970</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D237-F347-99CD-EB5442FDE84B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Airline 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Airline!$C$62:$C$76</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5.1027999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2645999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6348000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6952999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0307999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3960999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4945999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.5474000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.119814</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15004600000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.144014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.172761</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.18667</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.213279</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Airline!$F$62:$F$76</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>91361</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115967</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>138382</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>156228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>183169</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210212</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>274024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>356915</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>432344</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>524294</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>530924</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>581447</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>610257</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D237-F347-99CD-EB5442FDE84B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Airline 6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Airline!$C$77:$C$91</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3.7682E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9784E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4331000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0244999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5045999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2462000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6977E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1490000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9027000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.2748999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11264</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15415400000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.18646099999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.24684700000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.30401299999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Airline!$F$77:$F$91</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>68978</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74904</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83829</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98148</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>118449</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>133161</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>145062</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170711</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>199775</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>276797</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>381478</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>506969</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>633388</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>804388</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1009500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D237-F347-99CD-EB5442FDE84B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1852382544"/>
+        <c:axId val="1812513120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1852382544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1812513120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1812513120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1852382544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Airline 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Airline!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.95275699999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.986757</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.09198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.17578</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1601699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1737599999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.29051</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3906700000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.61273</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.82544</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5460400000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5279</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6601999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8223100000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9364600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Airline!$F$2:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1140640</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1215690</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1309570</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1511530</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1676730</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1823740</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2022890</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2314760</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2639160</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3247620</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3787750</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3867750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3996020</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4282880</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4748320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4F89-9B43-A14E-7036A855D95D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Airline 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Airline!$C$17:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.52063499999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53462699999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.655192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79157500000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84294500000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85289199999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92284299999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.19845</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.34067</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3262400000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2485200000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2543200000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3717699999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.38974</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Airline!$F$17:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>569292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>640614</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>777655</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>999294</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1203970</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1358100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1501350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1709270</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2025400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2548370</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3137740</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3557700</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3717740</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3962370</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4209390</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4F89-9B43-A14E-7036A855D95D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Airline 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Airline!$C$33:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.26643299999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30604300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32558599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34570600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36751699999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.409937</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.448023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.53959500000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53938200000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46796700000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.450544</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.46879300000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.49439699999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.49331700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Airline!$F$32:$F$46</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>286298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>309290</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>342056</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>374595</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>450037</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>510412</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>575347</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>669331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>783799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>913883</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1041520</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1125800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1096070</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1198930</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1170470</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4F89-9B43-A14E-7036A855D95D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Airline 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Airline!$C$47:$C$61</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8.6392999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6740000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.169715</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17380499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.164272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.170906</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17784</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.192248</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24246899999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25650499999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24965699999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27392300000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.37113099999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.42141099999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Airline!$F$47:$F$61</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>145167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>247506</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>309391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>354338</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>373941</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>420915</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>474017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>532590</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>676771</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>880438</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1052020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1193680</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1303390</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1436970</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4F89-9B43-A14E-7036A855D95D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Airline 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Airline!$C$62:$C$76</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5.1027999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2645999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6348000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6952999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0307999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3960999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4945999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.5474000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.119814</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15004600000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.144014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.172761</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.18667</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.213279</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Airline!$F$62:$F$76</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>91361</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115967</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>138382</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>156228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>183169</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210212</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>274024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>356915</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>432344</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>524294</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>530924</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>581447</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>610257</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4F89-9B43-A14E-7036A855D95D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Airline 6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Airline!$C$77:$C$91</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3.7682E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9784E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4331000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0244999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5045999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2462000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6977E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1490000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9027000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.2748999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11264</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15415400000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.18646099999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.24684700000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.30401299999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Airline!$F$77:$F$91</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>68978</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74904</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83829</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98148</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>118449</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>133161</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>145062</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170711</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>199775</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>276797</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>381478</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>506969</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>633388</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>804388</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1009500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4F89-9B43-A14E-7036A855D95D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1852382544"/>
+        <c:axId val="1812513120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1852382544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1812513120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1812513120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1852382544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Output  Residual Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'model built with Airline 4-6'!$C$2:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>8.6392999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6740000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.169715</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17380499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.164272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.170906</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17784</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.192248</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24246899999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25650499999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24965699999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27392300000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.37113099999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.42141099999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.1027999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.2645999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.6348000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.6952999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.0307999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.3960999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.4945999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.5474000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.119814</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.15004600000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.144014</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.16930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.172761</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.18667</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.213279</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.7682E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.9784E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.4331000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.0244999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.5045999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.2462000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.6977E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.1490000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.9027000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.2748999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.11264</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.15415400000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.18646099999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.24684700000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.30401299999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'model built with Airline 4-6'!$J$25:$J$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>-56202.095107556088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-69850.913444823178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-159835.65789017658</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-203409.41737466381</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-173749.54572098842</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-118515.20231621742</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-96336.999247639964</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-69152.101436739322</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-64431.655278755585</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-107960.89309801604</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43243.971579486737</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>240421.63292805199</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>291382.98831878137</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37760.183358014794</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-16590.577828588663</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22175.106351557508</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20194.533328488207</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9116.6264487585577</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-12741.514410110365</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2866.4448751273449</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1325.794770563487</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-12791.666081362462</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-25099.005257427751</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-52262.238496925158</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-82368.906997191545</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15605.804050493229</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13044.721565122192</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6738.5965757261147</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5274.1471456452273</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-65371.891526079737</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>49675.239581398579</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>47744.627409277629</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39674.377387092158</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>31888.71307409351</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34245.091267075157</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>58615.267219863192</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>53640.623091829882</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>62421.454332181078</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>63314.528575151839</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>51671.184166468331</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>82005.907898315403</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>52330.686341023014</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>57996.323141826782</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3292.5255082896911</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-5263.9290261846036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DB47-034F-B6F6-8CF31948CA38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1852585408"/>
+        <c:axId val="1852587136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1852585408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Output</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1852587136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1852587136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Residuals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1852585408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Output  Residual Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'model built with Airline 4-6'!$C$2:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>8.6392999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6740000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.169715</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17380499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.164272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.170906</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17784</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.192248</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24246899999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25650499999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24965699999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27392300000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.37113099999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.42141099999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.1027999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.2645999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.6348000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.6952999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.0307999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.3960999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.4945999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.5474000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.119814</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.15004600000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.144014</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.16930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.172761</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.18667</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.213279</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.7682E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.9784E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.4331000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.0244999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.5045999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.2462000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.6977E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.1490000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.9027000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.2748999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.11264</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.15415400000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.18646099999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.24684700000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.30401299999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'model built with Airline 4-6'!$T$27:$T$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>-52220.557927203859</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-57926.835727561906</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-98096.26174843614</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-132076.54553177598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-96147.342178120278</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-58380.782289648021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-37942.231392505462</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-15314.35725571902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20727.695834262006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-21180.436579348869</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36151.034331113799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>169057.20323958411</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>242666.43739065318</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>68368.650724139065</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46735.100618969183</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14270.968220840499</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24902.582608947938</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48350.973553677439</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33914.712825283699</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31235.599979162333</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26969.968107861758</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15214.349918660941</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5032.4922010714654</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7144.2760869996855</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-69209.446620969276</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-59501.484093867184</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-75724.047189011239</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-73511.985935044242</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-51726.619736411492</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-78270.112252051942</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>38824.344177287916</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>53049.751138066</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>62300.625322565378</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>55417.221069650201</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>57408.903069758904</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30697.393106969597</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32343.267261529982</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37302.076268187666</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>51973.292062158929</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8328.01162141026</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-55895.865960243798</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-66613.430758456816</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-36827.585102017387</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-51430.944266096689</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-30390.058194317273</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B11F-5C41-87C1-3DA3B5ED0555}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1849419408"/>
+        <c:axId val="1848744752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1849419408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Output</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1848744752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1848744752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Residuals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1849419408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fuel Price  Residual Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'model built with Airline 4-6'!$D$2:$D$46</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>114987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>127220</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>209405</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>263148</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>316724</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>363598</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>389436</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>547376</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>850418</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1011170</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>951934</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>881323</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>831374</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>118222</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>116223</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>115853</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>129372</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>243266</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>277930</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>317273</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>358794</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>397667</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>566672</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>848393</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1005740</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>958231</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>872924</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>844622</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>117112</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>119420</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>116087</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>122997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>194309</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>307923</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>323595</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>363081</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>386422</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>564867</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>874818</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1013170</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>930477</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>851676</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>819476</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'model built with Airline 4-6'!$T$27:$T$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>-52220.557927203859</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-57926.835727561906</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-98096.26174843614</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-132076.54553177598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-96147.342178120278</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-58380.782289648021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-37942.231392505462</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-15314.35725571902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20727.695834262006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-21180.436579348869</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36151.034331113799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>169057.20323958411</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>242666.43739065318</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>68368.650724139065</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46735.100618969183</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14270.968220840499</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24902.582608947938</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48350.973553677439</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33914.712825283699</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31235.599979162333</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26969.968107861758</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15214.349918660941</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5032.4922010714654</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7144.2760869996855</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-69209.446620969276</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-59501.484093867184</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-75724.047189011239</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-73511.985935044242</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-51726.619736411492</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-78270.112252051942</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>38824.344177287916</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>53049.751138066</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>62300.625322565378</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>55417.221069650201</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>57408.903069758904</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30697.393106969597</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32343.267261529982</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37302.076268187666</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>51973.292062158929</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8328.01162141026</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-55895.865960243798</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-66613.430758456816</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-36827.585102017387</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-51430.944266096689</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-30390.058194317273</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6670-A04E-99E4-447E2FB35900}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1891932944"/>
+        <c:axId val="1891934672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1891932944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Fuel Price</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1891934672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1891934672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Residuals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1891932944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Load Factor  Residual Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'model built with Airline 4-6'!$E$2:$E$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>0.43206600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43966899999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48893199999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48418099999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52992499999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53272299999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54906699999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55713999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61137699999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.64531899999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.611734</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58088399999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.57204699999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.59457000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.58552499999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.44287500000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.46247300000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.51911799999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.529331</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.55779699999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.55618100000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.56932700000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.58346500000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.63181799999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.60472300000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.58792100000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.61615900000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.60586799999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.59468799999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.63554500000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.44853900000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.47588900000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.50056199999999995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.50034400000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.52889699999999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.495361</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.51034199999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.51829599999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.54672299999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.55427599999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.51776599999999995</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.58004900000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.55602399999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.53779100000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.52577499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'model built with Airline 4-6'!$T$27:$T$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>-52220.557927203859</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-57926.835727561906</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-98096.26174843614</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-132076.54553177598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-96147.342178120278</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-58380.782289648021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-37942.231392505462</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-15314.35725571902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20727.695834262006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-21180.436579348869</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36151.034331113799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>169057.20323958411</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>242666.43739065318</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>68368.650724139065</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46735.100618969183</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14270.968220840499</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24902.582608947938</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48350.973553677439</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33914.712825283699</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31235.599979162333</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26969.968107861758</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15214.349918660941</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5032.4922010714654</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7144.2760869996855</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-69209.446620969276</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-59501.484093867184</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-75724.047189011239</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-73511.985935044242</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-51726.619736411492</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-78270.112252051942</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>38824.344177287916</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>53049.751138066</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>62300.625322565378</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>55417.221069650201</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>57408.903069758904</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30697.393106969597</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32343.267261529982</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37302.076268187666</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>51973.292062158929</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8328.01162141026</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-55895.865960243798</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-66613.430758456816</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-36827.585102017387</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-51430.944266096689</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-30390.058194317273</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7957-A848-AC32-AF925CF56949}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1891947936"/>
+        <c:axId val="1891949664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1891947936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Load Factor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1891949664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1891949664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Residuals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1891947936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{647768CC-FEA3-A2C0-78BE-7F1D8D56FC15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D84B67A6-C33F-BC47-A4CE-4E3EC91E16F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC1BF886-108E-B939-3136-3956AD0C44A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE41200-300B-1886-3308-CD345A5F1F45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCA05022-309B-04F2-4D82-8B41517510E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B71D1EF-979F-FC68-DE21-6CDD6389F9E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -887,26 +6284,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -925,8 +6327,21 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" s="7"/>
+      <c r="I1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -945,8 +6360,17 @@
       <c r="F2" s="1">
         <v>1140640</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -965,8 +6389,19 @@
       <c r="F3" s="1">
         <v>1215690</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.22761247976066334</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -985,8 +6420,21 @@
       <c r="F4" s="1">
         <v>1309570</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.42481001489346049</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.48670012139561775</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1005,8 +6453,23 @@
       <c r="F5" s="1">
         <v>1511530</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.92632688104344596</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.47904373608180967</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.41433772259655216</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1026,7 +6489,7 @@
         <v>1676730</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1046,7 +6509,7 @@
         <v>1823740</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1066,7 +6529,7 @@
         <v>2022890</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1086,7 +6549,7 @@
         <v>2314760</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1106,7 +6569,7 @@
         <v>2639160</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1126,7 +6589,7 @@
         <v>3247620</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1146,7 +6609,7 @@
         <v>3787750</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1166,7 +6629,7 @@
         <v>3867750</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1186,7 +6649,7 @@
         <v>3996020</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1206,7 +6669,7 @@
         <v>4282880</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1226,7 +6689,7 @@
         <v>4748320</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1246,7 +6709,7 @@
         <v>569292</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1266,7 +6729,7 @@
         <v>640614</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1286,7 +6749,7 @@
         <v>777655</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1306,7 +6769,7 @@
         <v>999294</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1326,7 +6789,7 @@
         <v>1203970</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1346,7 +6809,7 @@
         <v>1358100</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1366,7 +6829,7 @@
         <v>1501350</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1386,7 +6849,7 @@
         <v>1709270</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1406,7 +6869,7 @@
         <v>2025400</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1426,7 +6889,7 @@
         <v>2548370</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1446,7 +6909,7 @@
         <v>3137740</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1466,7 +6929,7 @@
         <v>3557700</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1486,7 +6949,7 @@
         <v>3717740</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1506,7 +6969,7 @@
         <v>3962370</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1526,7 +6989,7 @@
         <v>4209390</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1546,7 +7009,7 @@
         <v>286298</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1566,7 +7029,7 @@
         <v>309290</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1586,7 +7049,7 @@
         <v>342056</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1606,7 +7069,7 @@
         <v>374595</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3</v>
       </c>
@@ -1626,7 +7089,7 @@
         <v>450037</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3</v>
       </c>
@@ -1646,7 +7109,7 @@
         <v>510412</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3</v>
       </c>
@@ -1666,7 +7129,7 @@
         <v>575347</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3</v>
       </c>
@@ -1686,7 +7149,7 @@
         <v>669331</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1706,7 +7169,7 @@
         <v>783799</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3</v>
       </c>
@@ -1726,7 +7189,7 @@
         <v>913883</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3</v>
       </c>
@@ -1746,7 +7209,7 @@
         <v>1041520</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3</v>
       </c>
@@ -1766,7 +7229,7 @@
         <v>1125800</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
@@ -1786,7 +7249,7 @@
         <v>1096070</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3</v>
       </c>
@@ -1806,7 +7269,7 @@
         <v>1198930</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1826,7 +7289,7 @@
         <v>1170470</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4</v>
       </c>
@@ -1846,7 +7309,7 @@
         <v>145167</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>4</v>
       </c>
@@ -1866,7 +7329,7 @@
         <v>170192</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4</v>
       </c>
@@ -1886,7 +7349,7 @@
         <v>247506</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4</v>
       </c>
@@ -1906,7 +7369,7 @@
         <v>309391</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>4</v>
       </c>
@@ -1926,7 +7389,7 @@
         <v>354338</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>4</v>
       </c>
@@ -1946,7 +7409,7 @@
         <v>373941</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>4</v>
       </c>
@@ -1966,7 +7429,7 @@
         <v>420915</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>4</v>
       </c>
@@ -1986,7 +7449,7 @@
         <v>474017</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>4</v>
       </c>
@@ -2006,7 +7469,7 @@
         <v>532590</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>4</v>
       </c>
@@ -2026,7 +7489,7 @@
         <v>676771</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>4</v>
       </c>
@@ -2046,7 +7509,7 @@
         <v>880438</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>4</v>
       </c>
@@ -2066,7 +7529,7 @@
         <v>1052020</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>4</v>
       </c>
@@ -2086,7 +7549,7 @@
         <v>1193680</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>4</v>
       </c>
@@ -2106,7 +7569,7 @@
         <v>1303390</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>4</v>
       </c>
@@ -2126,7 +7589,7 @@
         <v>1436970</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>5</v>
       </c>
@@ -2146,7 +7609,7 @@
         <v>91361</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>5</v>
       </c>
@@ -2166,7 +7629,7 @@
         <v>95428</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>5</v>
       </c>
@@ -2186,7 +7649,7 @@
         <v>98187</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>5</v>
       </c>
@@ -2206,7 +7669,7 @@
         <v>115967</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>5</v>
       </c>
@@ -2226,7 +7689,7 @@
         <v>138382</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>5</v>
       </c>
@@ -2246,7 +7709,7 @@
         <v>156228</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>5</v>
       </c>
@@ -2266,7 +7729,7 @@
         <v>183169</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>5</v>
       </c>
@@ -2286,7 +7749,7 @@
         <v>210212</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>5</v>
       </c>
@@ -2306,7 +7769,7 @@
         <v>274024</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>5</v>
       </c>
@@ -2326,7 +7789,7 @@
         <v>356915</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>5</v>
       </c>
@@ -2346,7 +7809,7 @@
         <v>432344</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>5</v>
       </c>
@@ -2366,7 +7829,7 @@
         <v>524294</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>5</v>
       </c>
@@ -2386,7 +7849,7 @@
         <v>530924</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>5</v>
       </c>
@@ -2406,7 +7869,7 @@
         <v>581447</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>5</v>
       </c>
@@ -2426,7 +7889,7 @@
         <v>610257</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>6</v>
       </c>
@@ -2446,7 +7909,7 @@
         <v>68978</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>6</v>
       </c>
@@ -2466,7 +7929,7 @@
         <v>74904</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>6</v>
       </c>
@@ -2486,7 +7949,7 @@
         <v>83829</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>6</v>
       </c>
@@ -2506,7 +7969,7 @@
         <v>98148</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>6</v>
       </c>
@@ -2526,7 +7989,7 @@
         <v>118449</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>6</v>
       </c>
@@ -2546,7 +8009,7 @@
         <v>133161</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>6</v>
       </c>
@@ -2566,7 +8029,7 @@
         <v>145062</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>6</v>
       </c>
@@ -2586,7 +8049,7 @@
         <v>170711</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>6</v>
       </c>
@@ -2606,7 +8069,7 @@
         <v>199775</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>6</v>
       </c>
@@ -2626,7 +8089,7 @@
         <v>276797</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>6</v>
       </c>
@@ -2646,7 +8109,7 @@
         <v>381478</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>6</v>
       </c>
@@ -2666,7 +8129,7 @@
         <v>506969</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>6</v>
       </c>
@@ -2686,7 +8149,7 @@
         <v>633388</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>6</v>
       </c>
@@ -2706,7 +8169,7 @@
         <v>804388</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>6</v>
       </c>
@@ -2728,5 +8191,2247 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6533379-B36F-5D47-8919-65512D5CF7CB}">
+  <dimension ref="A1:Z71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8.6392999999999998E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>114987</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.43206600000000001</v>
+      </c>
+      <c r="F2" s="1">
+        <v>145167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>9.6740000000000007E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>120501</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.43966899999999998</v>
+      </c>
+      <c r="F3" s="1">
+        <v>170192</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="R3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="11"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.14149999999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>121908</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.48893199999999998</v>
+      </c>
+      <c r="F4" s="1">
+        <v>247506</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.96736896151158691</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0.98037502980138092</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.169715</v>
+      </c>
+      <c r="D5" s="1">
+        <v>127220</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.48418099999999997</v>
+      </c>
+      <c r="F5" s="1">
+        <v>309391</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.93580270769600604</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0.96113519905805855</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.17380499999999999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>209405</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.52992499999999998</v>
+      </c>
+      <c r="F6" s="1">
+        <v>354338</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.93430974740986672</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0.95829143313547738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.164272</v>
+      </c>
+      <c r="D7" s="1">
+        <v>263148</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.53272299999999995</v>
+      </c>
+      <c r="F7" s="1">
+        <v>373941</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="1">
+        <v>90197.782663832273</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S7" s="1">
+        <v>71871.71849370985</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.170906</v>
+      </c>
+      <c r="D8" s="1">
+        <v>316724</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.54906699999999997</v>
+      </c>
+      <c r="F8" s="1">
+        <v>420915</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="6">
+        <v>45</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.17784</v>
+      </c>
+      <c r="D9" s="1">
+        <v>363598</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.55713999999999997</v>
+      </c>
+      <c r="F9" s="1">
+        <v>474017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.192248</v>
+      </c>
+      <c r="D10" s="1">
+        <v>389436</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.61137699999999995</v>
+      </c>
+      <c r="F10" s="1">
+        <v>532590</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.24246899999999999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>547376</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.64531899999999998</v>
+      </c>
+      <c r="F11" s="1">
+        <v>676771</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.25650499999999998</v>
+      </c>
+      <c r="D12" s="1">
+        <v>850418</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.611734</v>
+      </c>
+      <c r="F12" s="1">
+        <v>880438</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
+        <v>5099501982173.5059</v>
+      </c>
+      <c r="K12" s="5">
+        <v>5099501982173.5059</v>
+      </c>
+      <c r="L12" s="5">
+        <v>626.81018134506098</v>
+      </c>
+      <c r="M12" s="5">
+        <v>2.8710353284581339E-27</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S12" s="5">
+        <v>3</v>
+      </c>
+      <c r="T12" s="5">
+        <v>5237547201375.9971</v>
+      </c>
+      <c r="U12" s="5">
+        <v>1745849067125.3323</v>
+      </c>
+      <c r="V12" s="5">
+        <v>337.97971606105517</v>
+      </c>
+      <c r="W12" s="5">
+        <v>6.2209514457418859E-29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.24965699999999999</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1011170</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.58088399999999996</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1052020</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="5">
+        <v>43</v>
+      </c>
+      <c r="J13" s="5">
+        <v>349832519891.2926</v>
+      </c>
+      <c r="K13" s="5">
+        <v>8135639997.471921</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="R13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S13" s="5">
+        <v>41</v>
+      </c>
+      <c r="T13" s="5">
+        <v>211787300688.80203</v>
+      </c>
+      <c r="U13" s="5">
+        <v>5165543919.2390738</v>
+      </c>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+    </row>
+    <row r="14" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.27392300000000003</v>
+      </c>
+      <c r="D14" s="1">
+        <v>951934</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.57204699999999997</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1193680</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="6">
+        <v>44</v>
+      </c>
+      <c r="J14" s="6">
+        <v>5449334502064.7988</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="R14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S14" s="6">
+        <v>44</v>
+      </c>
+      <c r="T14" s="6">
+        <v>5449334502064.7988</v>
+      </c>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+    </row>
+    <row r="15" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.37113099999999999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>881323</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.59457000000000004</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1303390</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.42141099999999998</v>
+      </c>
+      <c r="D16" s="1">
+        <v>831374</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.58552499999999996</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1436970</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="X16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z16" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5.1027999999999997E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>118222</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.44287500000000002</v>
+      </c>
+      <c r="F17" s="1">
+        <v>91361</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="5">
+        <v>-121540.65531396802</v>
+      </c>
+      <c r="J17" s="5">
+        <v>25300.224062710739</v>
+      </c>
+      <c r="K17" s="5">
+        <v>-4.8039359261289407</v>
+      </c>
+      <c r="L17" s="5">
+        <v>1.9187099018004338E-5</v>
+      </c>
+      <c r="M17" s="5">
+        <v>-172563.41981995286</v>
+      </c>
+      <c r="N17" s="5">
+        <v>-70517.890807983174</v>
+      </c>
+      <c r="O17" s="5">
+        <v>-172563.41981995286</v>
+      </c>
+      <c r="P17" s="5">
+        <v>-70517.890807983174</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S17" s="5">
+        <v>134549.37183160428</v>
+      </c>
+      <c r="T17" s="5">
+        <v>131121.89916069648</v>
+      </c>
+      <c r="U17" s="5">
+        <v>1.0261395898995274</v>
+      </c>
+      <c r="V17" s="5">
+        <v>0.31084203391131043</v>
+      </c>
+      <c r="W17" s="5">
+        <v>-130256.67564550502</v>
+      </c>
+      <c r="X17" s="5">
+        <v>399355.41930871358</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>-130256.67564550502</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>399355.41930871358</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5.2645999999999998E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>116223</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.46247300000000002</v>
+      </c>
+      <c r="F18" s="1">
+        <v>95428</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="6">
+        <v>3737684.1922554388</v>
+      </c>
+      <c r="J18" s="6">
+        <v>149291.32850289048</v>
+      </c>
+      <c r="K18" s="6">
+        <v>25.036177450742372</v>
+      </c>
+      <c r="L18" s="6">
+        <v>2.871035328458154E-27</v>
+      </c>
+      <c r="M18" s="6">
+        <v>3436609.5346513009</v>
+      </c>
+      <c r="N18" s="6">
+        <v>4038758.8498595767</v>
+      </c>
+      <c r="O18" s="6">
+        <v>3436609.5346513009</v>
+      </c>
+      <c r="P18" s="6">
+        <v>4038758.8498595767</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S18" s="5">
+        <v>3250141.8654939542</v>
+      </c>
+      <c r="T18" s="5">
+        <v>167569.89919067058</v>
+      </c>
+      <c r="U18" s="5">
+        <v>19.395738024499003</v>
+      </c>
+      <c r="V18" s="5">
+        <v>2.8800107678555039E-22</v>
+      </c>
+      <c r="W18" s="5">
+        <v>2911727.5886656637</v>
+      </c>
+      <c r="X18" s="5">
+        <v>3588556.1423222446</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>2911727.5886656637</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>3588556.1423222446</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5.6348000000000002E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>115853</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.51911799999999997</v>
+      </c>
+      <c r="F19" s="1">
+        <v>98187</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0.26852652218362111</v>
+      </c>
+      <c r="T19" s="5">
+        <v>5.2060131926513452E-2</v>
+      </c>
+      <c r="U19" s="5">
+        <v>5.1580069478630062</v>
+      </c>
+      <c r="V19" s="5">
+        <v>6.7373305815146747E-6</v>
+      </c>
+      <c r="W19" s="5">
+        <v>0.16338895283144403</v>
+      </c>
+      <c r="X19" s="5">
+        <v>0.37366409153579816</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>0.16338895283144403</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>0.37366409153579816</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2">
+        <v>6.6952999999999999E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>129372</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.529331</v>
+      </c>
+      <c r="F20" s="1">
+        <v>115967</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="6">
+        <v>-575903.63346421067</v>
+      </c>
+      <c r="T20" s="6">
+        <v>265995.55121954065</v>
+      </c>
+      <c r="U20" s="6">
+        <v>-2.1650874641466689</v>
+      </c>
+      <c r="V20" s="6">
+        <v>3.625336220142112E-2</v>
+      </c>
+      <c r="W20" s="6">
+        <v>-1113092.5471072108</v>
+      </c>
+      <c r="X20" s="6">
+        <v>-38714.719821210601</v>
+      </c>
+      <c r="Y20" s="6">
+        <v>-1113092.5471072108</v>
+      </c>
+      <c r="Z20" s="6">
+        <v>-38714.719821210601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2">
+        <v>7.0307999999999995E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>243266</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.55779699999999999</v>
+      </c>
+      <c r="F21" s="1">
+        <v>138382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2">
+        <v>7.3960999999999999E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>277930</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.55618100000000004</v>
+      </c>
+      <c r="F22" s="1">
+        <v>156228</v>
+      </c>
+      <c r="H22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2">
+        <v>8.4945999999999994E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>317273</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.56932700000000003</v>
+      </c>
+      <c r="F23" s="1">
+        <v>183169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2">
+        <v>9.5474000000000003E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>358794</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.58346500000000001</v>
+      </c>
+      <c r="F24" s="1">
+        <v>210212</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.119814</v>
+      </c>
+      <c r="D25" s="1">
+        <v>397667</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.63181799999999999</v>
+      </c>
+      <c r="F25" s="1">
+        <v>274024</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5">
+        <v>201369.09510755609</v>
+      </c>
+      <c r="J25" s="5">
+        <v>-56202.095107556088</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.15004600000000001</v>
+      </c>
+      <c r="D26" s="1">
+        <v>566672</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.60472300000000001</v>
+      </c>
+      <c r="F26" s="1">
+        <v>356915</v>
+      </c>
+      <c r="H26" s="5">
+        <v>2</v>
+      </c>
+      <c r="I26" s="5">
+        <v>240042.91344482318</v>
+      </c>
+      <c r="J26" s="5">
+        <v>-69850.913444823178</v>
+      </c>
+      <c r="R26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T26" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>11</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.144014</v>
+      </c>
+      <c r="D27" s="1">
+        <v>848393</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.58792100000000003</v>
+      </c>
+      <c r="F27" s="1">
+        <v>432344</v>
+      </c>
+      <c r="H27" s="5">
+        <v>3</v>
+      </c>
+      <c r="I27" s="5">
+        <v>407341.65789017658</v>
+      </c>
+      <c r="J27" s="5">
+        <v>-159835.65789017658</v>
+      </c>
+      <c r="R27" s="5">
+        <v>1</v>
+      </c>
+      <c r="S27" s="5">
+        <v>197387.55792720386</v>
+      </c>
+      <c r="T27" s="5">
+        <v>-52220.557927203859</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.16930000000000001</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1005740</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.61615900000000001</v>
+      </c>
+      <c r="F28" s="1">
+        <v>524294</v>
+      </c>
+      <c r="H28" s="5">
+        <v>4</v>
+      </c>
+      <c r="I28" s="5">
+        <v>512800.41737466381</v>
+      </c>
+      <c r="J28" s="5">
+        <v>-203409.41737466381</v>
+      </c>
+      <c r="R28" s="5">
+        <v>2</v>
+      </c>
+      <c r="S28" s="5">
+        <v>228118.83572756191</v>
+      </c>
+      <c r="T28" s="5">
+        <v>-57926.835727561906</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>13</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.172761</v>
+      </c>
+      <c r="D29" s="1">
+        <v>958231</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.60586799999999996</v>
+      </c>
+      <c r="F29" s="1">
+        <v>530924</v>
+      </c>
+      <c r="H29" s="5">
+        <v>5</v>
+      </c>
+      <c r="I29" s="5">
+        <v>528087.54572098842</v>
+      </c>
+      <c r="J29" s="5">
+        <v>-173749.54572098842</v>
+      </c>
+      <c r="R29" s="5">
+        <v>3</v>
+      </c>
+      <c r="S29" s="5">
+        <v>345602.26174843614</v>
+      </c>
+      <c r="T29" s="5">
+        <v>-98096.26174843614</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>14</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.18667</v>
+      </c>
+      <c r="D30" s="1">
+        <v>872924</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.59468799999999999</v>
+      </c>
+      <c r="F30" s="1">
+        <v>581447</v>
+      </c>
+      <c r="H30" s="5">
+        <v>6</v>
+      </c>
+      <c r="I30" s="5">
+        <v>492456.20231621742</v>
+      </c>
+      <c r="J30" s="5">
+        <v>-118515.20231621742</v>
+      </c>
+      <c r="R30" s="5">
+        <v>4</v>
+      </c>
+      <c r="S30" s="5">
+        <v>441467.54553177598</v>
+      </c>
+      <c r="T30" s="5">
+        <v>-132076.54553177598</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>15</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.213279</v>
+      </c>
+      <c r="D31" s="1">
+        <v>844622</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.63554500000000003</v>
+      </c>
+      <c r="F31" s="1">
+        <v>610257</v>
+      </c>
+      <c r="H31" s="5">
+        <v>7</v>
+      </c>
+      <c r="I31" s="5">
+        <v>517251.99924763996</v>
+      </c>
+      <c r="J31" s="5">
+        <v>-96336.999247639964</v>
+      </c>
+      <c r="R31" s="5">
+        <v>5</v>
+      </c>
+      <c r="S31" s="5">
+        <v>450485.34217812028</v>
+      </c>
+      <c r="T31" s="5">
+        <v>-96147.342178120278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3.7682E-2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>117112</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0.44853900000000002</v>
+      </c>
+      <c r="F32" s="1">
+        <v>68978</v>
+      </c>
+      <c r="H32" s="5">
+        <v>8</v>
+      </c>
+      <c r="I32" s="5">
+        <v>543169.10143673932</v>
+      </c>
+      <c r="J32" s="5">
+        <v>-69152.101436739322</v>
+      </c>
+      <c r="R32" s="5">
+        <v>6</v>
+      </c>
+      <c r="S32" s="5">
+        <v>432321.78228964802</v>
+      </c>
+      <c r="T32" s="5">
+        <v>-58380.782289648021</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3.9784E-2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>119420</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.47588900000000001</v>
+      </c>
+      <c r="F33" s="1">
+        <v>74904</v>
+      </c>
+      <c r="H33" s="5">
+        <v>9</v>
+      </c>
+      <c r="I33" s="5">
+        <v>597021.65527875558</v>
+      </c>
+      <c r="J33" s="5">
+        <v>-64431.655278755585</v>
+      </c>
+      <c r="R33" s="5">
+        <v>7</v>
+      </c>
+      <c r="S33" s="5">
+        <v>458857.23139250546</v>
+      </c>
+      <c r="T33" s="5">
+        <v>-37942.231392505462</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2">
+        <v>4.4331000000000002E-2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>116087</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.50056199999999995</v>
+      </c>
+      <c r="F34" s="1">
+        <v>83829</v>
+      </c>
+      <c r="H34" s="5">
+        <v>10</v>
+      </c>
+      <c r="I34" s="5">
+        <v>784731.89309801604</v>
+      </c>
+      <c r="J34" s="5">
+        <v>-107960.89309801604</v>
+      </c>
+      <c r="R34" s="5">
+        <v>8</v>
+      </c>
+      <c r="S34" s="5">
+        <v>489331.35725571902</v>
+      </c>
+      <c r="T34" s="5">
+        <v>-15314.35725571902</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" s="2">
+        <v>5.0244999999999998E-2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>122997</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0.50034400000000001</v>
+      </c>
+      <c r="F35" s="1">
+        <v>98148</v>
+      </c>
+      <c r="H35" s="5">
+        <v>11</v>
+      </c>
+      <c r="I35" s="5">
+        <v>837194.02842051326</v>
+      </c>
+      <c r="J35" s="5">
+        <v>43243.971579486737</v>
+      </c>
+      <c r="R35" s="5">
+        <v>9</v>
+      </c>
+      <c r="S35" s="5">
+        <v>511862.30416573799</v>
+      </c>
+      <c r="T35" s="5">
+        <v>20727.695834262006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36" s="2">
+        <v>5.5045999999999998E-2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>194309</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0.52889699999999995</v>
+      </c>
+      <c r="F36" s="1">
+        <v>118449</v>
+      </c>
+      <c r="H36" s="5">
+        <v>12</v>
+      </c>
+      <c r="I36" s="5">
+        <v>811598.36707194801</v>
+      </c>
+      <c r="J36" s="5">
+        <v>240421.63292805199</v>
+      </c>
+      <c r="R36" s="5">
+        <v>10</v>
+      </c>
+      <c r="S36" s="5">
+        <v>697951.43657934887</v>
+      </c>
+      <c r="T36" s="5">
+        <v>-21180.436579348869</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2">
+        <v>5.2462000000000002E-2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>307923</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0.495361</v>
+      </c>
+      <c r="F37" s="1">
+        <v>133161</v>
+      </c>
+      <c r="H37" s="5">
+        <v>13</v>
+      </c>
+      <c r="I37" s="5">
+        <v>902297.01168121863</v>
+      </c>
+      <c r="J37" s="5">
+        <v>291382.98831878137</v>
+      </c>
+      <c r="R37" s="5">
+        <v>11</v>
+      </c>
+      <c r="S37" s="5">
+        <v>844286.9656688862</v>
+      </c>
+      <c r="T37" s="5">
+        <v>36151.034331113799</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38" s="2">
+        <v>5.6977E-2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>323595</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0.51034199999999996</v>
+      </c>
+      <c r="F38" s="1">
+        <v>145062</v>
+      </c>
+      <c r="H38" s="5">
+        <v>14</v>
+      </c>
+      <c r="I38" s="5">
+        <v>1265629.8166419852</v>
+      </c>
+      <c r="J38" s="5">
+        <v>37760.183358014794</v>
+      </c>
+      <c r="R38" s="5">
+        <v>12</v>
+      </c>
+      <c r="S38" s="5">
+        <v>882962.79676041589</v>
+      </c>
+      <c r="T38" s="5">
+        <v>169057.20323958411</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39" s="2">
+        <v>6.1490000000000003E-2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>363081</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0.51829599999999998</v>
+      </c>
+      <c r="F39" s="1">
+        <v>170711</v>
+      </c>
+      <c r="H39" s="5">
+        <v>15</v>
+      </c>
+      <c r="I39" s="5">
+        <v>1453560.5778285887</v>
+      </c>
+      <c r="J39" s="5">
+        <v>-16590.577828588663</v>
+      </c>
+      <c r="R39" s="5">
+        <v>13</v>
+      </c>
+      <c r="S39" s="5">
+        <v>951013.56260934682</v>
+      </c>
+      <c r="T39" s="5">
+        <v>242666.43739065318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40" s="2">
+        <v>6.9027000000000005E-2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>386422</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0.54672299999999996</v>
+      </c>
+      <c r="F40" s="1">
+        <v>199775</v>
+      </c>
+      <c r="H40" s="5">
+        <v>16</v>
+      </c>
+      <c r="I40" s="5">
+        <v>69185.893648442492</v>
+      </c>
+      <c r="J40" s="5">
+        <v>22175.106351557508</v>
+      </c>
+      <c r="R40" s="5">
+        <v>14</v>
+      </c>
+      <c r="S40" s="5">
+        <v>1235021.3492758609</v>
+      </c>
+      <c r="T40" s="5">
+        <v>68368.650724139065</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41" s="2">
+        <v>9.2748999999999998E-2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>564867</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0.55427599999999999</v>
+      </c>
+      <c r="F41" s="1">
+        <v>276797</v>
+      </c>
+      <c r="H41" s="5">
+        <v>17</v>
+      </c>
+      <c r="I41" s="5">
+        <v>75233.466671511793</v>
+      </c>
+      <c r="J41" s="5">
+        <v>20194.533328488207</v>
+      </c>
+      <c r="R41" s="5">
+        <v>15</v>
+      </c>
+      <c r="S41" s="5">
+        <v>1390234.8993810308</v>
+      </c>
+      <c r="T41" s="5">
+        <v>46735.100618969183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>11</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.11264</v>
+      </c>
+      <c r="D42" s="1">
+        <v>874818</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0.51776599999999995</v>
+      </c>
+      <c r="F42" s="1">
+        <v>381478</v>
+      </c>
+      <c r="H42" s="5">
+        <v>18</v>
+      </c>
+      <c r="I42" s="5">
+        <v>89070.373551241442</v>
+      </c>
+      <c r="J42" s="5">
+        <v>9116.6264487585577</v>
+      </c>
+      <c r="R42" s="5">
+        <v>16</v>
+      </c>
+      <c r="S42" s="5">
+        <v>77090.031779159501</v>
+      </c>
+      <c r="T42" s="5">
+        <v>14270.968220840499</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>12</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.15415400000000001</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1013170</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0.58004900000000004</v>
+      </c>
+      <c r="F43" s="1">
+        <v>506969</v>
+      </c>
+      <c r="H43" s="5">
+        <v>19</v>
+      </c>
+      <c r="I43" s="5">
+        <v>128708.51441011037</v>
+      </c>
+      <c r="J43" s="5">
+        <v>-12741.514410110365</v>
+      </c>
+      <c r="R43" s="5">
+        <v>17</v>
+      </c>
+      <c r="S43" s="5">
+        <v>70525.417391052062</v>
+      </c>
+      <c r="T43" s="5">
+        <v>24902.582608947938</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>13</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.18646099999999999</v>
+      </c>
+      <c r="D44" s="1">
+        <v>930477</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.55602399999999996</v>
+      </c>
+      <c r="F44" s="1">
+        <v>633388</v>
+      </c>
+      <c r="H44" s="5">
+        <v>20</v>
+      </c>
+      <c r="I44" s="5">
+        <v>141248.44487512734</v>
+      </c>
+      <c r="J44" s="5">
+        <v>-2866.4448751273449</v>
+      </c>
+      <c r="R44" s="5">
+        <v>18</v>
+      </c>
+      <c r="S44" s="5">
+        <v>49836.026446322561</v>
+      </c>
+      <c r="T44" s="5">
+        <v>48350.973553677439</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>14</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.24684700000000001</v>
+      </c>
+      <c r="D45" s="1">
+        <v>851676</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0.53779100000000002</v>
+      </c>
+      <c r="F45" s="1">
+        <v>804388</v>
+      </c>
+      <c r="H45" s="5">
+        <v>21</v>
+      </c>
+      <c r="I45" s="5">
+        <v>154902.20522943651</v>
+      </c>
+      <c r="J45" s="5">
+        <v>1325.794770563487</v>
+      </c>
+      <c r="R45" s="5">
+        <v>19</v>
+      </c>
+      <c r="S45" s="5">
+        <v>82052.287174716301</v>
+      </c>
+      <c r="T45" s="5">
+        <v>33914.712825283699</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>15</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.30401299999999998</v>
+      </c>
+      <c r="D46" s="1">
+        <v>819476</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0.52577499999999999</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1009500</v>
+      </c>
+      <c r="H46" s="5">
+        <v>22</v>
+      </c>
+      <c r="I46" s="5">
+        <v>195960.66608136246</v>
+      </c>
+      <c r="J46" s="5">
+        <v>-12791.666081362462</v>
+      </c>
+      <c r="R46" s="5">
+        <v>20</v>
+      </c>
+      <c r="S46" s="5">
+        <v>107146.40002083767</v>
+      </c>
+      <c r="T46" s="5">
+        <v>31235.599979162333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H47" s="5">
+        <v>23</v>
+      </c>
+      <c r="I47" s="5">
+        <v>235311.00525742775</v>
+      </c>
+      <c r="J47" s="5">
+        <v>-25099.005257427751</v>
+      </c>
+      <c r="R47" s="5">
+        <v>21</v>
+      </c>
+      <c r="S47" s="5">
+        <v>129258.03189213824</v>
+      </c>
+      <c r="T47" s="5">
+        <v>26969.968107861758</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H48" s="5">
+        <v>24</v>
+      </c>
+      <c r="I48" s="5">
+        <v>326286.23849692516</v>
+      </c>
+      <c r="J48" s="5">
+        <v>-52262.238496925158</v>
+      </c>
+      <c r="R48" s="5">
+        <v>22</v>
+      </c>
+      <c r="S48" s="5">
+        <v>167954.65008133906</v>
+      </c>
+      <c r="T48" s="5">
+        <v>15214.349918660941</v>
+      </c>
+    </row>
+    <row r="49" spans="8:20" x14ac:dyDescent="0.2">
+      <c r="H49" s="5">
+        <v>25</v>
+      </c>
+      <c r="I49" s="5">
+        <v>439283.90699719155</v>
+      </c>
+      <c r="J49" s="5">
+        <v>-82368.906997191545</v>
+      </c>
+      <c r="R49" s="5">
+        <v>23</v>
+      </c>
+      <c r="S49" s="5">
+        <v>205179.50779892853</v>
+      </c>
+      <c r="T49" s="5">
+        <v>5032.4922010714654</v>
+      </c>
+    </row>
+    <row r="50" spans="8:20" x14ac:dyDescent="0.2">
+      <c r="H50" s="5">
+        <v>26</v>
+      </c>
+      <c r="I50" s="5">
+        <v>416738.19594950677</v>
+      </c>
+      <c r="J50" s="5">
+        <v>15605.804050493229</v>
+      </c>
+      <c r="R50" s="5">
+        <v>24</v>
+      </c>
+      <c r="S50" s="5">
+        <v>266879.72391300031</v>
+      </c>
+      <c r="T50" s="5">
+        <v>7144.2760869996855</v>
+      </c>
+    </row>
+    <row r="51" spans="8:20" x14ac:dyDescent="0.2">
+      <c r="H51" s="5">
+        <v>27</v>
+      </c>
+      <c r="I51" s="5">
+        <v>511249.27843487781</v>
+      </c>
+      <c r="J51" s="5">
+        <v>13044.721565122192</v>
+      </c>
+      <c r="R51" s="5">
+        <v>25</v>
+      </c>
+      <c r="S51" s="5">
+        <v>426124.44662096928</v>
+      </c>
+      <c r="T51" s="5">
+        <v>-69209.446620969276</v>
+      </c>
+    </row>
+    <row r="52" spans="8:20" x14ac:dyDescent="0.2">
+      <c r="H52" s="5">
+        <v>28</v>
+      </c>
+      <c r="I52" s="5">
+        <v>524185.40342427389</v>
+      </c>
+      <c r="J52" s="5">
+        <v>6738.5965757261147</v>
+      </c>
+      <c r="R52" s="5">
+        <v>26</v>
+      </c>
+      <c r="S52" s="5">
+        <v>491845.48409386718</v>
+      </c>
+      <c r="T52" s="5">
+        <v>-59501.484093867184</v>
+      </c>
+    </row>
+    <row r="53" spans="8:20" x14ac:dyDescent="0.2">
+      <c r="H53" s="5">
+        <v>29</v>
+      </c>
+      <c r="I53" s="5">
+        <v>576172.85285435477</v>
+      </c>
+      <c r="J53" s="5">
+        <v>5274.1471456452273</v>
+      </c>
+      <c r="R53" s="5">
+        <v>27</v>
+      </c>
+      <c r="S53" s="5">
+        <v>600018.04718901124</v>
+      </c>
+      <c r="T53" s="5">
+        <v>-75724.047189011239</v>
+      </c>
+    </row>
+    <row r="54" spans="8:20" x14ac:dyDescent="0.2">
+      <c r="H54" s="5">
+        <v>30</v>
+      </c>
+      <c r="I54" s="5">
+        <v>675628.89152607974</v>
+      </c>
+      <c r="J54" s="5">
+        <v>-65371.891526079737</v>
+      </c>
+      <c r="R54" s="5">
+        <v>28</v>
+      </c>
+      <c r="S54" s="5">
+        <v>604435.98593504424</v>
+      </c>
+      <c r="T54" s="5">
+        <v>-73511.985935044242</v>
+      </c>
+    </row>
+    <row r="55" spans="8:20" x14ac:dyDescent="0.2">
+      <c r="H55" s="5">
+        <v>31</v>
+      </c>
+      <c r="I55" s="5">
+        <v>19302.760418601421</v>
+      </c>
+      <c r="J55" s="5">
+        <v>49675.239581398579</v>
+      </c>
+      <c r="R55" s="5">
+        <v>29</v>
+      </c>
+      <c r="S55" s="5">
+        <v>633173.61973641149</v>
+      </c>
+      <c r="T55" s="5">
+        <v>-51726.619736411492</v>
+      </c>
+    </row>
+    <row r="56" spans="8:20" x14ac:dyDescent="0.2">
+      <c r="H56" s="5">
+        <v>32</v>
+      </c>
+      <c r="I56" s="5">
+        <v>27159.372590722371</v>
+      </c>
+      <c r="J56" s="5">
+        <v>47744.627409277629</v>
+      </c>
+      <c r="R56" s="5">
+        <v>30</v>
+      </c>
+      <c r="S56" s="5">
+        <v>688527.11225205194</v>
+      </c>
+      <c r="T56" s="5">
+        <v>-78270.112252051942</v>
+      </c>
+    </row>
+    <row r="57" spans="8:20" x14ac:dyDescent="0.2">
+      <c r="H57" s="5">
+        <v>33</v>
+      </c>
+      <c r="I57" s="5">
+        <v>44154.622612907842</v>
+      </c>
+      <c r="J57" s="5">
+        <v>39674.377387092158</v>
+      </c>
+      <c r="R57" s="5">
+        <v>31</v>
+      </c>
+      <c r="S57" s="5">
+        <v>30153.655822712084</v>
+      </c>
+      <c r="T57" s="5">
+        <v>38824.344177287916</v>
+      </c>
+    </row>
+    <row r="58" spans="8:20" x14ac:dyDescent="0.2">
+      <c r="H58" s="5">
+        <v>34</v>
+      </c>
+      <c r="I58" s="5">
+        <v>66259.28692590649</v>
+      </c>
+      <c r="J58" s="5">
+        <v>31888.71307409351</v>
+      </c>
+      <c r="R58" s="5">
+        <v>32</v>
+      </c>
+      <c r="S58" s="5">
+        <v>21854.248861934</v>
+      </c>
+      <c r="T58" s="5">
+        <v>53049.751138066</v>
+      </c>
+    </row>
+    <row r="59" spans="8:20" x14ac:dyDescent="0.2">
+      <c r="H59" s="5">
+        <v>35</v>
+      </c>
+      <c r="I59" s="5">
+        <v>84203.908732924843</v>
+      </c>
+      <c r="J59" s="5">
+        <v>34245.091267075157</v>
+      </c>
+      <c r="R59" s="5">
+        <v>33</v>
+      </c>
+      <c r="S59" s="5">
+        <v>21528.374677434622</v>
+      </c>
+      <c r="T59" s="5">
+        <v>62300.625322565378</v>
+      </c>
+    </row>
+    <row r="60" spans="8:20" x14ac:dyDescent="0.2">
+      <c r="H60" s="5">
+        <v>36</v>
+      </c>
+      <c r="I60" s="5">
+        <v>74545.732780136808</v>
+      </c>
+      <c r="J60" s="5">
+        <v>58615.267219863192</v>
+      </c>
+      <c r="R60" s="5">
+        <v>34</v>
+      </c>
+      <c r="S60" s="5">
+        <v>42730.778930349799</v>
+      </c>
+      <c r="T60" s="5">
+        <v>55417.221069650201</v>
+      </c>
+    </row>
+    <row r="61" spans="8:20" x14ac:dyDescent="0.2">
+      <c r="H61" s="5">
+        <v>37</v>
+      </c>
+      <c r="I61" s="5">
+        <v>91421.376908170118</v>
+      </c>
+      <c r="J61" s="5">
+        <v>53640.623091829882</v>
+      </c>
+      <c r="R61" s="5">
+        <v>35</v>
+      </c>
+      <c r="S61" s="5">
+        <v>61040.096930241096</v>
+      </c>
+      <c r="T61" s="5">
+        <v>57408.903069758904</v>
+      </c>
+    </row>
+    <row r="62" spans="8:20" x14ac:dyDescent="0.2">
+      <c r="H62" s="5">
+        <v>38</v>
+      </c>
+      <c r="I62" s="5">
+        <v>108289.54566781892</v>
+      </c>
+      <c r="J62" s="5">
+        <v>62421.454332181078</v>
+      </c>
+      <c r="R62" s="5">
+        <v>36</v>
+      </c>
+      <c r="S62" s="5">
+        <v>102463.6068930304</v>
+      </c>
+      <c r="T62" s="5">
+        <v>30697.393106969597</v>
+      </c>
+    </row>
+    <row r="63" spans="8:20" x14ac:dyDescent="0.2">
+      <c r="H63" s="5">
+        <v>39</v>
+      </c>
+      <c r="I63" s="5">
+        <v>136460.47142484816</v>
+      </c>
+      <c r="J63" s="5">
+        <v>63314.528575151839</v>
+      </c>
+      <c r="R63" s="5">
+        <v>37</v>
+      </c>
+      <c r="S63" s="5">
+        <v>112718.73273847002</v>
+      </c>
+      <c r="T63" s="5">
+        <v>32343.267261529982</v>
+      </c>
+    </row>
+    <row r="64" spans="8:20" x14ac:dyDescent="0.2">
+      <c r="H64" s="5">
+        <v>40</v>
+      </c>
+      <c r="I64" s="5">
+        <v>225125.81583353167</v>
+      </c>
+      <c r="J64" s="5">
+        <v>51671.184166468331</v>
+      </c>
+      <c r="R64" s="5">
+        <v>38</v>
+      </c>
+      <c r="S64" s="5">
+        <v>133408.92373181233</v>
+      </c>
+      <c r="T64" s="5">
+        <v>37302.076268187666</v>
+      </c>
+    </row>
+    <row r="65" spans="8:20" x14ac:dyDescent="0.2">
+      <c r="H65" s="5">
+        <v>41</v>
+      </c>
+      <c r="I65" s="5">
+        <v>299472.0921016846</v>
+      </c>
+      <c r="J65" s="5">
+        <v>82005.907898315403</v>
+      </c>
+      <c r="R65" s="5">
+        <v>39</v>
+      </c>
+      <c r="S65" s="5">
+        <v>147801.70793784107</v>
+      </c>
+      <c r="T65" s="5">
+        <v>51973.292062158929</v>
+      </c>
+    </row>
+    <row r="66" spans="8:20" x14ac:dyDescent="0.2">
+      <c r="H66" s="5">
+        <v>42</v>
+      </c>
+      <c r="I66" s="5">
+        <v>454638.31365897699</v>
+      </c>
+      <c r="J66" s="5">
+        <v>52330.686341023014</v>
+      </c>
+      <c r="R66" s="5">
+        <v>40</v>
+      </c>
+      <c r="S66" s="5">
+        <v>268468.98837858974</v>
+      </c>
+      <c r="T66" s="5">
+        <v>8328.01162141026</v>
+      </c>
+    </row>
+    <row r="67" spans="8:20" x14ac:dyDescent="0.2">
+      <c r="H67" s="5">
+        <v>43</v>
+      </c>
+      <c r="I67" s="5">
+        <v>575391.67685817322</v>
+      </c>
+      <c r="J67" s="5">
+        <v>57996.323141826782</v>
+      </c>
+      <c r="R67" s="5">
+        <v>41</v>
+      </c>
+      <c r="S67" s="5">
+        <v>437373.8659602438</v>
+      </c>
+      <c r="T67" s="5">
+        <v>-55895.865960243798</v>
+      </c>
+    </row>
+    <row r="68" spans="8:20" x14ac:dyDescent="0.2">
+      <c r="H68" s="5">
+        <v>44</v>
+      </c>
+      <c r="I68" s="5">
+        <v>801095.47449171031</v>
+      </c>
+      <c r="J68" s="5">
+        <v>3292.5255082896911</v>
+      </c>
+      <c r="R68" s="5">
+        <v>42</v>
+      </c>
+      <c r="S68" s="5">
+        <v>573582.43075845682</v>
+      </c>
+      <c r="T68" s="5">
+        <v>-66613.430758456816</v>
+      </c>
+    </row>
+    <row r="69" spans="8:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H69" s="6">
+        <v>45</v>
+      </c>
+      <c r="I69" s="6">
+        <v>1014763.9290261846</v>
+      </c>
+      <c r="J69" s="6">
+        <v>-5263.9290261846036</v>
+      </c>
+      <c r="R69" s="5">
+        <v>43</v>
+      </c>
+      <c r="S69" s="5">
+        <v>670215.58510201739</v>
+      </c>
+      <c r="T69" s="5">
+        <v>-36827.585102017387</v>
+      </c>
+    </row>
+    <row r="70" spans="8:20" x14ac:dyDescent="0.2">
+      <c r="R70" s="5">
+        <v>44</v>
+      </c>
+      <c r="S70" s="5">
+        <v>855818.94426609669</v>
+      </c>
+      <c r="T70" s="5">
+        <v>-51430.944266096689</v>
+      </c>
+    </row>
+    <row r="71" spans="8:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R71" s="6">
+        <v>45</v>
+      </c>
+      <c r="S71" s="6">
+        <v>1039890.0581943173</v>
+      </c>
+      <c r="T71" s="6">
+        <v>-30390.058194317273</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>